--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T13:54:52+01:00</t>
+    <t>2023-11-02T14:22:57+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T14:22:57+01:00</t>
+    <t>2023-11-02T14:52:41+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T14:52:41+01:00</t>
+    <t>2023-11-02T22:24:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T22:24:37+01:00</t>
+    <t>2023-11-02T22:29:48+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-09T15:34:44+02:00</t>
+    <t>2024-06-12T14:59:11+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-06T23:06:55+01:00</t>
+    <t>2024-11-07T10:16:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T10:16:17+01:00</t>
+    <t>2024-11-07T10:24:13+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T10:24:13+01:00</t>
+    <t>2024-11-07T10:34:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T10:34:59+01:00</t>
+    <t>2025-02-07T15:58:52+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T15:58:52+01:00</t>
+    <t>2025-02-12T12:09:01+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-12T12:09:01+01:00</t>
+    <t>2025-02-12T17:25:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-12T17:25:34+01:00</t>
+    <t>2025-02-13T07:45:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-13T07:45:06+01:00</t>
+    <t>2025-02-21T16:49:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T16:49:26+01:00</t>
+    <t>2025-02-22T02:39:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T02:39:46+01:00</t>
+    <t>2025-02-22T03:24:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:24:26+01:00</t>
+    <t>2025-02-22T03:36:49+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:36:49+01:00</t>
+    <t>2025-02-22T03:45:56+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:45:56+01:00</t>
+    <t>2025-02-22T03:55:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:55:28+01:00</t>
+    <t>2025-02-22T04:12:23+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T04:12:23+01:00</t>
+    <t>2025-02-22T05:08:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T05:08:06+01:00</t>
+    <t>2025-02-22T05:29:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T05:29:40+01:00</t>
+    <t>2025-03-16T11:47:10+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-16T11:47:10+01:00</t>
+    <t>2025-03-16T12:58:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-16T12:58:55+01:00</t>
+    <t>2025-03-16T13:18:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-16T13:18:55+01:00</t>
+    <t>2025-03-26T11:34:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T11:34:28+01:00</t>
+    <t>2025-05-28T01:07:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T01:07:52+02:00</t>
+    <t>2025-05-28T02:05:36+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T02:05:36+02:00</t>
+    <t>2025-05-29T20:33:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T20:33:03+02:00</t>
+    <t>2025-05-29T20:44:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="365">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T20:44:52+02:00</t>
+    <t>2025-07-07T00:15:54+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -264,7 +264,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -314,17 +314,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Patient.implicitRules</t>
   </si>
   <si>
@@ -344,9 +337,6 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Patient.language</t>
   </si>
   <si>
@@ -424,6 +414,9 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Patient.extension</t>
   </si>
   <si>
@@ -442,16 +435,6 @@
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -533,6 +516,9 @@
     <t>statusCode</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>FiveWs.status</t>
   </si>
   <si>
@@ -583,10 +569,6 @@
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
-  </si>
-  <si>
     <t>telecom</t>
   </si>
   <si>
@@ -724,9 +706,6 @@
   </si>
   <si>
     <t>This field contains a patient's most recent marital (civil) status.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>Most, if not all systems capture it.</t>
@@ -797,10 +776,6 @@
     <t>Many EHR systems have the capability to capture an image of the patient. Fits with newer social media usage too.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
-  </si>
-  <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/desc</t>
   </si>
   <si>
@@ -908,9 +883,6 @@
     <t>A name associated with the contact person.</t>
   </si>
   <si>
-    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
-  </si>
-  <si>
     <t>Contact persons need to be identified by name, but it is uncommon to need details about multiple other names for that contact person.</t>
   </si>
   <si>
@@ -941,9 +913,6 @@
     <t>Address for the contact person.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
-  </si>
-  <si>
     <t>Need to keep track where the contact person can be contacted per postal mail or visited.</t>
   </si>
   <si>
@@ -954,9 +923,6 @@
   </si>
   <si>
     <t>Administrative Gender - the gender that the contact person is considered to have for administration and record keeping purposes.</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Needed to address the person correctly.</t>
@@ -978,18 +944,11 @@
     <t>Organization on behalf of which the contact is acting or for which the contact is working.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
     <t>For guardians or business related contacts, the organization is relevant.</t>
   </si>
   <si>
-    <t>ele-1
-pat-1</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+    <t xml:space="preserve">pat-1
+</t>
   </si>
   <si>
     <t>scoper</t>
@@ -1011,18 +970,7 @@
     <t>The period during which this contact person or organization is valid to be contacted relating to this patient.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
     <t>effectiveTime</t>
-  </si>
-  <si>
-    <t>DR</t>
   </si>
   <si>
     <t>Patient.communication</t>
@@ -1554,7 +1502,7 @@
     <col min="26" max="26" width="52.28125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
@@ -2019,13 +1967,13 @@
         <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK4" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>77</v>
@@ -2042,10 +1990,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2068,16 +2016,16 @@
         <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2127,7 +2075,7 @@
         <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
@@ -2136,13 +2084,13 @@
         <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK5" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>77</v>
@@ -2159,10 +2107,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2185,16 +2133,16 @@
         <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2220,31 +2168,31 @@
         <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
@@ -2253,13 +2201,13 @@
         <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK6" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>77</v>
@@ -2276,14 +2224,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2302,16 +2250,16 @@
         <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2361,7 +2309,7 @@
         <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
@@ -2370,13 +2318,13 @@
         <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK7" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>77</v>
@@ -2393,14 +2341,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2419,16 +2367,16 @@
         <v>77</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2478,7 +2426,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2493,7 +2441,7 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>77</v>
@@ -2510,14 +2458,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2536,16 +2484,16 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2583,19 +2531,19 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2604,13 +2552,13 @@
         <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>77</v>
@@ -2627,14 +2575,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2653,19 +2601,19 @@
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2702,19 +2650,19 @@
         <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2723,13 +2671,13 @@
         <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>77</v>
@@ -2746,10 +2694,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2772,17 +2720,17 @@
         <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>77</v>
@@ -2831,7 +2779,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2840,22 +2788,22 @@
         <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK11" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>77</v>
@@ -2863,10 +2811,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2889,26 +2837,26 @@
         <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="R12" t="s" s="2">
         <v>77</v>
       </c>
@@ -2952,7 +2900,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -2961,19 +2909,19 @@
         <v>85</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ12" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK12" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>77</v>
@@ -2984,10 +2932,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3010,19 +2958,19 @@
         <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="O13" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -3071,7 +3019,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -3080,22 +3028,22 @@
         <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ13" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK13" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>77</v>
@@ -3103,10 +3051,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3129,19 +3077,19 @@
         <v>86</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O14" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -3190,7 +3138,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3199,22 +3147,22 @@
         <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ14" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="AK14" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>77</v>
@@ -3222,10 +3170,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3248,19 +3196,19 @@
         <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3285,13 +3233,13 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -3309,7 +3257,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3318,22 +3266,22 @@
         <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK15" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>77</v>
@@ -3341,10 +3289,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3367,19 +3315,19 @@
         <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3428,7 +3376,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3437,33 +3385,33 @@
         <v>85</v>
       </c>
       <c r="AI16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ16" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK16" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3486,19 +3434,19 @@
         <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -3547,7 +3495,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -3556,22 +3504,22 @@
         <v>85</v>
       </c>
       <c r="AI17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ17" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK17" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>77</v>
@@ -3579,10 +3527,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3605,19 +3553,19 @@
         <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -3666,7 +3614,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3675,22 +3623,22 @@
         <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ18" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK18" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>77</v>
@@ -3698,10 +3646,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3724,19 +3672,17 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -3761,13 +3707,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3785,7 +3731,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3794,22 +3740,22 @@
         <v>85</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ19" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>77</v>
@@ -3817,10 +3763,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3843,19 +3789,19 @@
         <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3904,7 +3850,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -3913,22 +3859,22 @@
         <v>85</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ20" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK20" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>77</v>
@@ -3936,10 +3882,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3962,19 +3908,19 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>77</v>
@@ -4023,7 +3969,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -4032,22 +3978,22 @@
         <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ21" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="AK21" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>77</v>
@@ -4055,10 +4001,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4081,19 +4027,19 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4142,7 +4088,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -4151,16 +4097,16 @@
         <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4174,10 +4120,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4200,13 +4146,13 @@
         <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4257,7 +4203,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4272,7 +4218,7 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4289,14 +4235,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4315,16 +4261,16 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4362,19 +4308,19 @@
         <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4383,13 +4329,13 @@
         <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4406,14 +4352,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4432,19 +4378,19 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4493,7 +4439,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4502,13 +4448,13 @@
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4525,10 +4471,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4551,19 +4497,17 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4588,13 +4532,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -4612,7 +4556,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4621,22 +4565,22 @@
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ26" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK26" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>77</v>
@@ -4644,10 +4588,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4670,19 +4614,17 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4731,7 +4673,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4740,22 +4682,22 @@
         <v>85</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ27" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK27" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>77</v>
@@ -4763,10 +4705,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4789,19 +4731,19 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O28" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4850,7 +4792,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4859,22 +4801,22 @@
         <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="AK28" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>77</v>
@@ -4882,10 +4824,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4908,19 +4850,17 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4969,7 +4909,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4978,22 +4918,22 @@
         <v>85</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ29" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK29" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>77</v>
@@ -5001,10 +4941,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5027,19 +4967,17 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5064,13 +5002,13 @@
         <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>77</v>
@@ -5088,7 +5026,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5097,22 +5035,22 @@
         <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK30" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>77</v>
@@ -5120,10 +5058,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5146,19 +5084,17 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5207,7 +5143,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5216,22 +5152,22 @@
         <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>309</v>
+        <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>77</v>
@@ -5239,10 +5175,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5265,17 +5201,15 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5324,7 +5258,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5333,22 +5267,22 @@
         <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ32" t="s" s="2">
-        <v>317</v>
-      </c>
       <c r="AK32" t="s" s="2">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>319</v>
+        <v>77</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>77</v>
@@ -5356,10 +5290,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5382,19 +5316,19 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5443,7 +5377,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5452,16 +5386,16 @@
         <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK33" t="s" s="2">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5475,10 +5409,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5501,13 +5435,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5558,7 +5492,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5573,7 +5507,7 @@
         <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -5590,14 +5524,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5616,16 +5550,16 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5663,19 +5597,19 @@
         <v>77</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5684,13 +5618,13 @@
         <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
@@ -5707,14 +5641,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5733,19 +5667,19 @@
         <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5794,7 +5728,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5803,13 +5737,13 @@
         <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -5826,10 +5760,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5852,19 +5786,19 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5889,13 +5823,13 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -5913,7 +5847,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>85</v>
@@ -5922,22 +5856,22 @@
         <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ37" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK37" t="s" s="2">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>77</v>
@@ -5945,10 +5879,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5971,19 +5905,19 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -6032,7 +5966,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -6041,22 +5975,22 @@
         <v>85</v>
       </c>
       <c r="AI38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ38" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK38" t="s" s="2">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>77</v>
@@ -6064,14 +5998,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6090,16 +6024,16 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6149,7 +6083,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6158,22 +6092,22 @@
         <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ39" t="s" s="2">
-        <v>309</v>
-      </c>
       <c r="AK39" t="s" s="2">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>77</v>
@@ -6181,10 +6115,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6207,19 +6141,19 @@
         <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6268,7 +6202,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6277,16 +6211,16 @@
         <v>85</v>
       </c>
       <c r="AI40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ40" t="s" s="2">
-        <v>309</v>
-      </c>
       <c r="AK40" t="s" s="2">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -6300,10 +6234,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6326,19 +6260,19 @@
         <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6387,7 +6321,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6396,16 +6330,16 @@
         <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ41" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK41" t="s" s="2">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -6419,10 +6353,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6445,13 +6379,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6502,7 +6436,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6517,7 +6451,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6534,14 +6468,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6560,16 +6494,16 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6607,19 +6541,19 @@
         <v>77</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6628,13 +6562,13 @@
         <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6651,14 +6585,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6677,19 +6611,19 @@
         <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6738,7 +6672,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6747,13 +6681,13 @@
         <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -6770,10 +6704,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6796,16 +6730,16 @@
         <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6855,7 +6789,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>85</v>
@@ -6864,22 +6798,22 @@
         <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ45" t="s" s="2">
-        <v>309</v>
-      </c>
       <c r="AK45" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>77</v>
@@ -6887,10 +6821,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6913,17 +6847,15 @@
         <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6948,13 +6880,13 @@
         <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>77</v>
@@ -6972,7 +6904,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>85</v>
@@ -6981,16 +6913,16 @@
         <v>85</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ46" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK46" t="s" s="2">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T00:15:54+02:00</t>
+    <t>2025-07-07T00:32:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T00:32:38+02:00</t>
+    <t>2025-07-07T08:59:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T08:59:22+02:00</t>
+    <t>2025-09-28T17:18:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-28T17:18:13+02:00</t>
+    <t>2025-09-29T11:26:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:26:30+02:00</t>
+    <t>2025-09-29T11:54:59+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:54:59+02:00</t>
+    <t>2025-09-29T13:11:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.1</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T13:11:32+02:00</t>
+    <t>2025-09-29T13:18:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-MyPatient.xlsx
+++ b/ExampleIG/output/StructureDefinition-MyPatient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T13:18:42+02:00</t>
+    <t>2025-10-01T13:36:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
